--- a/Sales_1Q2020.xlsx
+++ b/Sales_1Q2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -34,10 +34,10 @@
     <t>Month_Name</t>
   </si>
   <si>
-    <t>Feb</t>
+    <t>Jan</t>
   </si>
   <si>
-    <t>Jan</t>
+    <t>Feb</t>
   </si>
   <si>
     <t>Mar</t>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,16 +430,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B2">
-        <v>7542</v>
+        <v>5736</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>2020</v>
@@ -450,16 +450,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>43863</v>
+        <v>43832</v>
       </c>
       <c r="B3">
-        <v>3491</v>
+        <v>6379</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2020</v>
@@ -470,16 +470,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>43864</v>
+        <v>43833</v>
       </c>
       <c r="B4">
-        <v>4024</v>
+        <v>4985</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -490,16 +490,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>43865</v>
+        <v>43834</v>
       </c>
       <c r="B5">
-        <v>8411</v>
+        <v>6002</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -510,16 +510,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>43866</v>
+        <v>43835</v>
       </c>
       <c r="B6">
-        <v>3489</v>
+        <v>4533</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -530,16 +530,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>43867</v>
+        <v>43836</v>
       </c>
       <c r="B7">
-        <v>8874</v>
+        <v>5767</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>43868</v>
+        <v>43837</v>
       </c>
       <c r="B8">
-        <v>3819</v>
+        <v>6106</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -570,16 +570,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>43869</v>
+        <v>43838</v>
       </c>
       <c r="B9">
-        <v>6333</v>
+        <v>3160</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>2020</v>
@@ -590,16 +590,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>43870</v>
+        <v>43839</v>
       </c>
       <c r="B10">
-        <v>4833</v>
+        <v>4053</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>2020</v>
@@ -610,16 +610,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>43871</v>
+        <v>43840</v>
       </c>
       <c r="B11">
-        <v>5475</v>
+        <v>4444</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>2020</v>
@@ -630,16 +630,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>43872</v>
+        <v>43841</v>
       </c>
       <c r="B12">
-        <v>8619</v>
+        <v>4733</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -650,16 +650,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>43873</v>
+        <v>43842</v>
       </c>
       <c r="B13">
-        <v>4479</v>
+        <v>7281</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>2020</v>
@@ -670,16 +670,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>43874</v>
+        <v>43843</v>
       </c>
       <c r="B14">
-        <v>8207</v>
+        <v>7231</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -690,16 +690,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>43875</v>
+        <v>43844</v>
       </c>
       <c r="B15">
-        <v>4393</v>
+        <v>7120</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>2020</v>
@@ -710,16 +710,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>43876</v>
+        <v>43845</v>
       </c>
       <c r="B16">
-        <v>7514</v>
+        <v>5475</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -730,16 +730,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>43877</v>
+        <v>43846</v>
       </c>
       <c r="B17">
-        <v>5730</v>
+        <v>3144</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>2020</v>
@@ -750,16 +750,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>43878</v>
+        <v>43847</v>
       </c>
       <c r="B18">
-        <v>5178</v>
+        <v>3123</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>2020</v>
@@ -770,16 +770,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>43879</v>
+        <v>43848</v>
       </c>
       <c r="B19">
-        <v>3779</v>
+        <v>3872</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>2020</v>
@@ -790,16 +790,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>43880</v>
+        <v>43849</v>
       </c>
       <c r="B20">
-        <v>8364</v>
+        <v>3468</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>2020</v>
@@ -810,16 +810,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>43881</v>
+        <v>43850</v>
       </c>
       <c r="B21">
-        <v>3476</v>
+        <v>6220</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>2020</v>
@@ -830,16 +830,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>43882</v>
+        <v>43851</v>
       </c>
       <c r="B22">
-        <v>5270</v>
+        <v>5671</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>2020</v>
@@ -850,16 +850,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>43883</v>
+        <v>43852</v>
       </c>
       <c r="B23">
-        <v>3336</v>
+        <v>5062</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>2020</v>
@@ -870,16 +870,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>43884</v>
+        <v>43853</v>
       </c>
       <c r="B24">
-        <v>8863</v>
+        <v>4688</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>2020</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>43885</v>
+        <v>43854</v>
       </c>
       <c r="B25">
-        <v>6270</v>
+        <v>6764</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>2020</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>43886</v>
+        <v>43855</v>
       </c>
       <c r="B26">
-        <v>6241</v>
+        <v>6856</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>2020</v>
@@ -930,16 +930,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>43887</v>
+        <v>43856</v>
       </c>
       <c r="B27">
-        <v>4600</v>
+        <v>7529</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>2020</v>
@@ -950,16 +950,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>43888</v>
+        <v>43857</v>
       </c>
       <c r="B28">
-        <v>8038</v>
+        <v>4271</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>2020</v>
@@ -970,16 +970,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>43889</v>
+        <v>43858</v>
       </c>
       <c r="B29">
-        <v>4261</v>
+        <v>5169</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>2020</v>
@@ -990,16 +990,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>43890</v>
+        <v>43859</v>
       </c>
       <c r="B30">
-        <v>4579</v>
+        <v>7602</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>2020</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>43831</v>
+        <v>43860</v>
       </c>
       <c r="B31">
-        <v>5736</v>
+        <v>5894</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1025,18 +1025,18 @@
         <v>2020</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>43832</v>
+        <v>43861</v>
       </c>
       <c r="B32">
-        <v>6379</v>
+        <v>3205</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1045,21 +1045,21 @@
         <v>2020</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>43833</v>
+        <v>43862</v>
       </c>
       <c r="B33">
-        <v>4985</v>
+        <v>7542</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>2020</v>
@@ -1070,16 +1070,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>43834</v>
+        <v>43863</v>
       </c>
       <c r="B34">
-        <v>6002</v>
+        <v>3491</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>2020</v>
@@ -1090,16 +1090,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>43835</v>
+        <v>43864</v>
       </c>
       <c r="B35">
-        <v>4533</v>
+        <v>4024</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>2020</v>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>43836</v>
+        <v>43865</v>
       </c>
       <c r="B36">
-        <v>5767</v>
+        <v>8411</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>2020</v>
@@ -1130,16 +1130,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>43837</v>
+        <v>43866</v>
       </c>
       <c r="B37">
-        <v>6106</v>
+        <v>3489</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>2020</v>
@@ -1150,16 +1150,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>43838</v>
+        <v>43867</v>
       </c>
       <c r="B38">
-        <v>3160</v>
+        <v>8874</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>2020</v>
@@ -1170,16 +1170,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>43839</v>
+        <v>43868</v>
       </c>
       <c r="B39">
-        <v>4053</v>
+        <v>3819</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>2020</v>
@@ -1190,16 +1190,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>43840</v>
+        <v>43869</v>
       </c>
       <c r="B40">
-        <v>4444</v>
+        <v>6333</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>2020</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>43841</v>
+        <v>43870</v>
       </c>
       <c r="B41">
-        <v>4733</v>
+        <v>4833</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>2020</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>43842</v>
+        <v>43871</v>
       </c>
       <c r="B42">
-        <v>7281</v>
+        <v>5475</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>2020</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>43843</v>
+        <v>43872</v>
       </c>
       <c r="B43">
-        <v>7231</v>
+        <v>8619</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>2020</v>
@@ -1270,16 +1270,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>43844</v>
+        <v>43873</v>
       </c>
       <c r="B44">
-        <v>7120</v>
+        <v>4479</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>2020</v>
@@ -1290,16 +1290,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>43845</v>
+        <v>43874</v>
       </c>
       <c r="B45">
-        <v>5475</v>
+        <v>8207</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>2020</v>
@@ -1310,16 +1310,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>43846</v>
+        <v>43875</v>
       </c>
       <c r="B46">
-        <v>3144</v>
+        <v>4393</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>2020</v>
@@ -1330,16 +1330,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>43847</v>
+        <v>43876</v>
       </c>
       <c r="B47">
-        <v>3123</v>
+        <v>7514</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>2020</v>
@@ -1350,16 +1350,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>43848</v>
+        <v>43877</v>
       </c>
       <c r="B48">
-        <v>3872</v>
+        <v>5730</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>2020</v>
@@ -1370,16 +1370,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>43849</v>
+        <v>43878</v>
       </c>
       <c r="B49">
-        <v>3468</v>
+        <v>5178</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>2020</v>
@@ -1390,16 +1390,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>43850</v>
+        <v>43879</v>
       </c>
       <c r="B50">
-        <v>6220</v>
+        <v>3779</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>2020</v>
@@ -1410,16 +1410,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>43851</v>
+        <v>43880</v>
       </c>
       <c r="B51">
-        <v>5671</v>
+        <v>8364</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>2020</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>43852</v>
+        <v>43881</v>
       </c>
       <c r="B52">
-        <v>5062</v>
+        <v>3476</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>2020</v>
@@ -1450,16 +1450,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>43853</v>
+        <v>43882</v>
       </c>
       <c r="B53">
-        <v>4688</v>
+        <v>5270</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>2020</v>
@@ -1470,16 +1470,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>43854</v>
+        <v>43883</v>
       </c>
       <c r="B54">
-        <v>6764</v>
+        <v>3336</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>2020</v>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>43855</v>
+        <v>43884</v>
       </c>
       <c r="B55">
-        <v>6856</v>
+        <v>8863</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>2020</v>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>43856</v>
+        <v>43885</v>
       </c>
       <c r="B56">
-        <v>7529</v>
+        <v>6270</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>2020</v>
@@ -1530,16 +1530,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>43857</v>
+        <v>43886</v>
       </c>
       <c r="B57">
-        <v>4271</v>
+        <v>6241</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>2020</v>
@@ -1550,16 +1550,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>43858</v>
+        <v>43887</v>
       </c>
       <c r="B58">
-        <v>5169</v>
+        <v>4600</v>
       </c>
       <c r="C58">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>2020</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>43859</v>
+        <v>43888</v>
       </c>
       <c r="B59">
-        <v>7602</v>
+        <v>8038</v>
       </c>
       <c r="C59">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>2020</v>
@@ -1590,16 +1590,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>43860</v>
+        <v>43889</v>
       </c>
       <c r="B60">
-        <v>5894</v>
+        <v>4261</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>2020</v>
@@ -1610,16 +1610,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B61">
-        <v>3205</v>
+        <v>4579</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>2020</v>
@@ -2245,6 +2245,1826 @@
         <v>2020</v>
       </c>
       <c r="F92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B93">
+        <v>5736</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>2020</v>
+      </c>
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>43832</v>
+      </c>
+      <c r="B94">
+        <v>6379</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>2020</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>43833</v>
+      </c>
+      <c r="B95">
+        <v>4985</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>2020</v>
+      </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>43834</v>
+      </c>
+      <c r="B96">
+        <v>6002</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2020</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>43835</v>
+      </c>
+      <c r="B97">
+        <v>4533</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>2020</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>43836</v>
+      </c>
+      <c r="B98">
+        <v>5767</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>2020</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B99">
+        <v>6106</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>2020</v>
+      </c>
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
+        <v>43838</v>
+      </c>
+      <c r="B100">
+        <v>3160</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2020</v>
+      </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>43839</v>
+      </c>
+      <c r="B101">
+        <v>4053</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>2020</v>
+      </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
+        <v>43840</v>
+      </c>
+      <c r="B102">
+        <v>4444</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>2020</v>
+      </c>
+      <c r="F102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B103">
+        <v>4733</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>2020</v>
+      </c>
+      <c r="F103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B104">
+        <v>7281</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>2020</v>
+      </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B105">
+        <v>7231</v>
+      </c>
+      <c r="C105">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>2020</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B106">
+        <v>7120</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>2020</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B107">
+        <v>5475</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>2020</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B108">
+        <v>3144</v>
+      </c>
+      <c r="C108">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>2020</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B109">
+        <v>3123</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>2020</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B110">
+        <v>3872</v>
+      </c>
+      <c r="C110">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>2020</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B111">
+        <v>3468</v>
+      </c>
+      <c r="C111">
+        <v>19</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>2020</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B112">
+        <v>6220</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>2020</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B113">
+        <v>5671</v>
+      </c>
+      <c r="C113">
+        <v>21</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>2020</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B114">
+        <v>5062</v>
+      </c>
+      <c r="C114">
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>2020</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B115">
+        <v>4688</v>
+      </c>
+      <c r="C115">
+        <v>23</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>2020</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B116">
+        <v>6764</v>
+      </c>
+      <c r="C116">
+        <v>24</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>2020</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B117">
+        <v>6856</v>
+      </c>
+      <c r="C117">
+        <v>25</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>2020</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>43856</v>
+      </c>
+      <c r="B118">
+        <v>7529</v>
+      </c>
+      <c r="C118">
+        <v>26</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>2020</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B119">
+        <v>4271</v>
+      </c>
+      <c r="C119">
+        <v>27</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>2020</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B120">
+        <v>5169</v>
+      </c>
+      <c r="C120">
+        <v>28</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>2020</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B121">
+        <v>7602</v>
+      </c>
+      <c r="C121">
+        <v>29</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>2020</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
+        <v>43860</v>
+      </c>
+      <c r="B122">
+        <v>5894</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>2020</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B123">
+        <v>3205</v>
+      </c>
+      <c r="C123">
+        <v>31</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>2020</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B124">
+        <v>7542</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2020</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B125">
+        <v>3491</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>2020</v>
+      </c>
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B126">
+        <v>4024</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2020</v>
+      </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B127">
+        <v>8411</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>2020</v>
+      </c>
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B128">
+        <v>3489</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>2020</v>
+      </c>
+      <c r="F128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B129">
+        <v>8874</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>2020</v>
+      </c>
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B130">
+        <v>3819</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>2020</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B131">
+        <v>6333</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>2020</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B132">
+        <v>4833</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>2020</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B133">
+        <v>5475</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>2020</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B134">
+        <v>8619</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>2020</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B135">
+        <v>4479</v>
+      </c>
+      <c r="C135">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>2020</v>
+      </c>
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B136">
+        <v>8207</v>
+      </c>
+      <c r="C136">
+        <v>13</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>2020</v>
+      </c>
+      <c r="F136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B137">
+        <v>4393</v>
+      </c>
+      <c r="C137">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>2020</v>
+      </c>
+      <c r="F137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B138">
+        <v>7514</v>
+      </c>
+      <c r="C138">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>2020</v>
+      </c>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B139">
+        <v>5730</v>
+      </c>
+      <c r="C139">
+        <v>16</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>2020</v>
+      </c>
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B140">
+        <v>5178</v>
+      </c>
+      <c r="C140">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>2020</v>
+      </c>
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B141">
+        <v>3779</v>
+      </c>
+      <c r="C141">
+        <v>18</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>2020</v>
+      </c>
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B142">
+        <v>8364</v>
+      </c>
+      <c r="C142">
+        <v>19</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>2020</v>
+      </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B143">
+        <v>3476</v>
+      </c>
+      <c r="C143">
+        <v>20</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>2020</v>
+      </c>
+      <c r="F143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B144">
+        <v>5270</v>
+      </c>
+      <c r="C144">
+        <v>21</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>2020</v>
+      </c>
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B145">
+        <v>3336</v>
+      </c>
+      <c r="C145">
+        <v>22</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>2020</v>
+      </c>
+      <c r="F145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B146">
+        <v>8863</v>
+      </c>
+      <c r="C146">
+        <v>23</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>2020</v>
+      </c>
+      <c r="F146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B147">
+        <v>6270</v>
+      </c>
+      <c r="C147">
+        <v>24</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>2020</v>
+      </c>
+      <c r="F147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B148">
+        <v>6241</v>
+      </c>
+      <c r="C148">
+        <v>25</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>2020</v>
+      </c>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B149">
+        <v>4600</v>
+      </c>
+      <c r="C149">
+        <v>26</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>2020</v>
+      </c>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B150">
+        <v>8038</v>
+      </c>
+      <c r="C150">
+        <v>27</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>2020</v>
+      </c>
+      <c r="F150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B151">
+        <v>4261</v>
+      </c>
+      <c r="C151">
+        <v>28</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>2020</v>
+      </c>
+      <c r="F151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B152">
+        <v>4579</v>
+      </c>
+      <c r="C152">
+        <v>29</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>2020</v>
+      </c>
+      <c r="F152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B153">
+        <v>4982</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>2020</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B154">
+        <v>7799</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>2020</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B155">
+        <v>8606</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>2020</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B156">
+        <v>4368</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>2020</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B157">
+        <v>7782</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>2020</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B158">
+        <v>8551</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>2020</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B159">
+        <v>7130</v>
+      </c>
+      <c r="C159">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>2020</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B160">
+        <v>8028</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>2020</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B161">
+        <v>4009</v>
+      </c>
+      <c r="C161">
+        <v>9</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>2020</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B162">
+        <v>4694</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>2020</v>
+      </c>
+      <c r="F162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B163">
+        <v>7354</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>2020</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B164">
+        <v>8408</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>2020</v>
+      </c>
+      <c r="F164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B165">
+        <v>7800</v>
+      </c>
+      <c r="C165">
+        <v>13</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165">
+        <v>2020</v>
+      </c>
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B166">
+        <v>3441</v>
+      </c>
+      <c r="C166">
+        <v>14</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>2020</v>
+      </c>
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B167">
+        <v>6408</v>
+      </c>
+      <c r="C167">
+        <v>15</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>2020</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B168">
+        <v>8453</v>
+      </c>
+      <c r="C168">
+        <v>16</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168">
+        <v>2020</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B169">
+        <v>7493</v>
+      </c>
+      <c r="C169">
+        <v>17</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>2020</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B170">
+        <v>4600</v>
+      </c>
+      <c r="C170">
+        <v>18</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>2020</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B171">
+        <v>8652</v>
+      </c>
+      <c r="C171">
+        <v>19</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>2020</v>
+      </c>
+      <c r="F171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B172">
+        <v>7009</v>
+      </c>
+      <c r="C172">
+        <v>20</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>2020</v>
+      </c>
+      <c r="F172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B173">
+        <v>6518</v>
+      </c>
+      <c r="C173">
+        <v>21</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173">
+        <v>2020</v>
+      </c>
+      <c r="F173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B174">
+        <v>6577</v>
+      </c>
+      <c r="C174">
+        <v>22</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174">
+        <v>2020</v>
+      </c>
+      <c r="F174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B175">
+        <v>7179</v>
+      </c>
+      <c r="C175">
+        <v>23</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>2020</v>
+      </c>
+      <c r="F175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B176">
+        <v>6583</v>
+      </c>
+      <c r="C176">
+        <v>24</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>2020</v>
+      </c>
+      <c r="F176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B177">
+        <v>5605</v>
+      </c>
+      <c r="C177">
+        <v>25</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>2020</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B178">
+        <v>3488</v>
+      </c>
+      <c r="C178">
+        <v>26</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>2020</v>
+      </c>
+      <c r="F178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B179">
+        <v>5086</v>
+      </c>
+      <c r="C179">
+        <v>27</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179">
+        <v>2020</v>
+      </c>
+      <c r="F179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B180">
+        <v>5614</v>
+      </c>
+      <c r="C180">
+        <v>28</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180">
+        <v>2020</v>
+      </c>
+      <c r="F180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B181">
+        <v>4465</v>
+      </c>
+      <c r="C181">
+        <v>29</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181">
+        <v>2020</v>
+      </c>
+      <c r="F181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B182">
+        <v>7399</v>
+      </c>
+      <c r="C182">
+        <v>30</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>2020</v>
+      </c>
+      <c r="F182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B183">
+        <v>5991</v>
+      </c>
+      <c r="C183">
+        <v>31</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183">
+        <v>2020</v>
+      </c>
+      <c r="F183" t="s">
         <v>8</v>
       </c>
     </row>
